--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efna3-Epha2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efna3-Epha2.xlsx
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>Efna3</t>
+  </si>
+  <si>
+    <t>Epha2</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Efna3</t>
-  </si>
-  <si>
-    <t>Epha2</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -531,19 +531,19 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.06733099999999999</v>
+        <v>0.02551366666666667</v>
       </c>
       <c r="H2">
-        <v>0.134662</v>
+        <v>0.076541</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.60495066666667</v>
+        <v>12.997753</v>
       </c>
       <c r="N2">
-        <v>49.814852</v>
+        <v>38.993259</v>
       </c>
       <c r="O2">
-        <v>0.4330603147186406</v>
+        <v>0.4740421406233454</v>
       </c>
       <c r="P2">
-        <v>0.5197056776409935</v>
+        <v>0.5546503645614554</v>
       </c>
       <c r="Q2">
-        <v>1.118027933337333</v>
+        <v>0.3316203374576667</v>
       </c>
       <c r="R2">
-        <v>6.708167600023999</v>
+        <v>2.984583037119</v>
       </c>
       <c r="S2">
-        <v>0.4330603147186406</v>
+        <v>0.4740421406233454</v>
       </c>
       <c r="T2">
-        <v>0.5197056776409935</v>
+        <v>0.5546503645614554</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,19 +593,19 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.06733099999999999</v>
+        <v>0.02551366666666667</v>
       </c>
       <c r="H3">
-        <v>0.134662</v>
+        <v>0.076541</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>2.241754</v>
       </c>
       <c r="O3">
-        <v>0.01948845883877707</v>
+        <v>0.02725306609819269</v>
       </c>
       <c r="P3">
-        <v>0.02338764916283215</v>
+        <v>0.03188729809316786</v>
       </c>
       <c r="Q3">
-        <v>0.05031317952466665</v>
+        <v>0.01906512143488889</v>
       </c>
       <c r="R3">
-        <v>0.3018790771479999</v>
+        <v>0.171586092914</v>
       </c>
       <c r="S3">
-        <v>0.01948845883877707</v>
+        <v>0.02725306609819269</v>
       </c>
       <c r="T3">
-        <v>0.02338764916283215</v>
+        <v>0.03188729809316786</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,19 +655,19 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.06733099999999999</v>
+        <v>0.02551366666666667</v>
       </c>
       <c r="H4">
-        <v>0.134662</v>
+        <v>0.076541</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5008306666666666</v>
+        <v>1.182591666666666</v>
       </c>
       <c r="N4">
-        <v>1.502492</v>
+        <v>3.547775</v>
       </c>
       <c r="O4">
-        <v>0.01306176034372721</v>
+        <v>0.04313039993528083</v>
       </c>
       <c r="P4">
-        <v>0.01567511679067463</v>
+        <v>0.05046448405689858</v>
       </c>
       <c r="Q4">
-        <v>0.03372142961733333</v>
+        <v>0.03017224958611111</v>
       </c>
       <c r="R4">
-        <v>0.202328577704</v>
+        <v>0.271550246275</v>
       </c>
       <c r="S4">
-        <v>0.01306176034372721</v>
+        <v>0.04313039993528083</v>
       </c>
       <c r="T4">
-        <v>0.01567511679067463</v>
+        <v>0.05046448405689858</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,19 +717,19 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.06733099999999999</v>
+        <v>0.02551366666666667</v>
       </c>
       <c r="H5">
-        <v>0.134662</v>
+        <v>0.076541</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.1777795</v>
+        <v>11.9545335</v>
       </c>
       <c r="N5">
-        <v>38.355559</v>
+        <v>23.909067</v>
       </c>
       <c r="O5">
-        <v>0.5001601867174891</v>
+        <v>0.4359947946767024</v>
       </c>
       <c r="P5">
-        <v>0.4001537891027781</v>
+        <v>0.3400888529957002</v>
       </c>
       <c r="Q5">
-        <v>1.2912590715145</v>
+        <v>0.3050039828745</v>
       </c>
       <c r="R5">
-        <v>5.165036286057999</v>
+        <v>1.830023897247</v>
       </c>
       <c r="S5">
-        <v>0.5001601867174891</v>
+        <v>0.4359947946767024</v>
       </c>
       <c r="T5">
-        <v>0.4001537891027781</v>
+        <v>0.3400888529957002</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,13 +785,13 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.06733099999999999</v>
+        <v>0.02551366666666667</v>
       </c>
       <c r="H6">
-        <v>0.134662</v>
+        <v>0.076541</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.312462666666667</v>
+        <v>0.5368526666666666</v>
       </c>
       <c r="N6">
-        <v>3.937388</v>
+        <v>1.610558</v>
       </c>
       <c r="O6">
-        <v>0.034229279381366</v>
+        <v>0.01957959866647858</v>
       </c>
       <c r="P6">
-        <v>0.04107776730272161</v>
+        <v>0.022909000292778</v>
       </c>
       <c r="Q6">
-        <v>0.08836942380933331</v>
+        <v>0.01369707998644444</v>
       </c>
       <c r="R6">
-        <v>0.5302165428559998</v>
+        <v>0.123273719878</v>
       </c>
       <c r="S6">
-        <v>0.034229279381366</v>
+        <v>0.01957959866647858</v>
       </c>
       <c r="T6">
-        <v>0.04107776730272161</v>
+        <v>0.022909000292778</v>
       </c>
     </row>
   </sheetData>
